--- a/arsel/data_ar/DataSchedule/CheckCellValue/DSFR03v1_ExpectedValue.xlsx
+++ b/arsel/data_ar/DataSchedule/CheckCellValue/DSFR03v1_ExpectedValue.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop\workspace\rpsel\data_ar\DataSchedule\CheckCellValue\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leo tu\Documents\AUTOMATION\arauto\arsel\data_ar\DataSchedule\CheckCellValue\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="21">
   <si>
     <t>CellName</t>
   </si>
@@ -50,9 +50,6 @@
     <t>31/12/2015</t>
   </si>
   <si>
-    <t>03C</t>
-  </si>
-  <si>
     <t>DS03P01</t>
   </si>
   <si>
@@ -81,6 +78,15 @@
   </si>
   <si>
     <t>JEP</t>
+  </si>
+  <si>
+    <t>167900</t>
+  </si>
+  <si>
+    <t>2400</t>
+  </si>
+  <si>
+    <t>14340</t>
   </si>
 </sst>
 </file>
@@ -129,9 +135,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -415,17 +441,17 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -450,201 +476,237 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2">
-        <v>167900</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3">
-        <v>2400</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="21"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="21" t="s">
         <v>6</v>
       </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="21"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="21" t="s">
         <v>7</v>
       </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="21"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
         <v>15</v>
       </c>
+      <c r="D6" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="21"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7">
-        <v>14340</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="21"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8">
-        <v>169200</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="21"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9">
-        <v>2400</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="21"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="21" t="s">
         <v>6</v>
       </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="21"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="21" t="s">
         <v>7</v>
       </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="21"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" t="s">
-        <v>8</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="13"/>
+      <c r="F12" s="21"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13">
-        <v>14460</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="14"/>
+      <c r="F13" s="21"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D14">
-        <v>226900</v>
-      </c>
+      <c r="E14" s="15"/>
+      <c r="F14" s="21"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15">
-        <v>3200</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="16"/>
+      <c r="F15" s="21"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="17"/>
+      <c r="F16" s="21"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>11</v>
       </c>
-      <c r="C16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="18"/>
+      <c r="F17" s="21"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>12</v>
       </c>
-      <c r="C17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="19"/>
+      <c r="F18" s="21"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>13</v>
       </c>
-      <c r="C18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>14</v>
-      </c>
       <c r="C19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19">
-        <v>19400</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="20"/>
+      <c r="F19" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
